--- a/outputs/ML_Results/carown_LR/Frankfurt am Main.xlsx
+++ b/outputs/ML_Results/carown_LR/Frankfurt am Main.xlsx
@@ -7,14 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ6" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ8" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ23" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ5" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ0" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ3" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ3" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ7" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ24" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ9" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ0" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -433,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.12425125164817</v>
+        <v>1.510842932547229</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5874680367482263</v>
+        <v>0.4752255363844508</v>
       </c>
     </row>
     <row r="3">
@@ -478,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7468207460489481</v>
+        <v>0.4236654151091517</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1019148361751985</v>
+        <v>0.3746382340677414</v>
       </c>
     </row>
     <row r="4">
@@ -491,257 +492,244 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.9914887117736072</v>
+        <v>-0.9270569151990113</v>
       </c>
       <c r="C4" t="n">
-        <v>0.008750703264356369</v>
+        <v>0.02249856953355165</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03559361448364682</v>
+        <v>-1.096908065924629</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9536433998964545</v>
+        <v>0.006501404018595574</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.02789706456889</v>
+        <v>-0.2170584550002161</v>
       </c>
       <c r="C6" t="n">
-        <v>0.008016343996486396</v>
+        <v>0.7178234626689393</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.5687879587181867</v>
+        <v>-0.05690099440000707</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6571842011345772</v>
+        <v>0.8128130192110887</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.1620326263621072</v>
+        <v>0.0002585832506451421</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4554434314498257</v>
+        <v>0.001230473103236703</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0002442529178890871</v>
+        <v>0.02153384751068993</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002130581971175403</v>
+        <v>0.01831970523156141</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02664069486019657</v>
+        <v>-0.2095959340137817</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003605148442544425</v>
+        <v>0.4581797384705527</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.003879532679223635</v>
+        <v>0.3628362789869962</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9886653215206783</v>
+        <v>0.3855670882982065</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1949510875336986</v>
+        <v>0.2704239292986155</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6395476039324643</v>
+        <v>0.5957049031735193</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.08554839392671496</v>
+        <v>-2.23143555128482e-06</v>
       </c>
       <c r="C13" t="n">
-        <v>0.866333145252265</v>
+        <v>0.9722478768157206</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-4.397610197780231e-05</v>
+        <v>1.357110244567379e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4922047764936912</v>
+        <v>0.2132813334274984</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.425628514926604e-07</v>
+        <v>-0.00605424970296241</v>
       </c>
       <c r="C15" t="n">
-        <v>0.201767010756589</v>
+        <v>0.9638884881936571</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01420415485514001</v>
+        <v>0.1020655675798621</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9136146436759482</v>
+        <v>0.151539179553727</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.07392483354020357</v>
+        <v>0.7858078861605244</v>
       </c>
       <c r="C17" t="n">
-        <v>0.281882029341349</v>
+        <v>0.6540227545803222</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1173895941346563</v>
+        <v>-0.02558218925579367</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9446310813898848</v>
+        <v>0.1532621929541234</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01997168341991108</v>
+        <v>-0.01132884967505384</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2486265223037045</v>
+        <v>0.4178640570167395</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.006957582239147268</v>
+        <v>1.984318986247453</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6030956099913061</v>
+        <v>0.3697391765167023</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.914443786223004</v>
+        <v>-2.60009728083746</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1777667329330741</v>
+        <v>0.2112770524253371</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-3.216802419247845</v>
+        <v>-1.396842141560082</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1097588938305156</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-1.574488981175652</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.2393234154604431</v>
+        <v>0.3070667288615045</v>
       </c>
     </row>
   </sheetData>
@@ -755,7 +743,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -787,10 +775,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2828982474582317</v>
+        <v>0.682888652964748</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8943374624984015</v>
+        <v>0.7462689858645162</v>
       </c>
     </row>
     <row r="3">
@@ -800,10 +788,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.256956372189471</v>
+        <v>0.3564738340136307</v>
       </c>
       <c r="C3" t="n">
-        <v>0.565535601306782</v>
+        <v>0.4226708383526653</v>
       </c>
     </row>
     <row r="4">
@@ -813,257 +801,244 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.8471504673975858</v>
+        <v>-0.7256524311497371</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0283697719813536</v>
+        <v>0.05957526967891202</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.265599429788332</v>
+        <v>-0.8734092143967171</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6614587722046925</v>
+        <v>0.02750039482645122</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.097830738047366</v>
+        <v>-0.07534937017179731</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004773717730169663</v>
+        <v>0.9001496805840774</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.7186415236044047</v>
+        <v>-0.1011840115589767</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6371612144084799</v>
+        <v>0.6357122324320167</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01334341364531801</v>
+        <v>0.0002367328851696362</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9518236698126887</v>
+        <v>0.003871771570861136</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0002188231970905826</v>
+        <v>0.02627367775387196</v>
       </c>
       <c r="C9" t="n">
-        <v>0.006413780807623905</v>
+        <v>0.005537416080406306</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02360338006951399</v>
+        <v>0.1717686964216636</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01098453300675575</v>
+        <v>0.5419519993242881</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.001949373893823605</v>
+        <v>0.5645692226509846</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9942672595181311</v>
+        <v>0.1955281467907389</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4560115132805954</v>
+        <v>0.1464050601089485</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2925844945669217</v>
+        <v>0.778383529602299</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1678708472535991</v>
+        <v>-4.566558073062747e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7454521608219242</v>
+        <v>0.4637996420685292</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-2.415415723382458e-05</v>
+        <v>1.029341693742113e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6978005187366507</v>
+        <v>0.3495238117069615</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.128600616845048e-07</v>
+        <v>-0.1175376242318892</v>
       </c>
       <c r="C15" t="n">
-        <v>0.09521619430523467</v>
+        <v>0.387808006910864</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.06635994956653241</v>
+        <v>0.09062274448372352</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6139360659732527</v>
+        <v>0.2007693011729376</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.09049673140179004</v>
+        <v>0.6583273000663601</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1959505413819819</v>
+        <v>0.6933465424646164</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.600548103521508</v>
+        <v>-0.01896873446255203</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3620187436687634</v>
+        <v>0.2813401187733435</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.02297813145694796</v>
+        <v>-0.002214552519013771</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1903639867726241</v>
+        <v>0.8720587752078006</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.001816925536642509</v>
+        <v>2.223859862890514</v>
       </c>
       <c r="C20" t="n">
-        <v>0.894837661670625</v>
+        <v>0.2967263590951389</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.159348020635801</v>
+        <v>-3.313810305849748</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5930892576776619</v>
+        <v>0.1025304227589722</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-4.384897831131105</v>
+        <v>-1.691946915475538</v>
       </c>
       <c r="C22" t="n">
-        <v>0.04516467885172435</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-1.09458700170906</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.4169102121420377</v>
+        <v>0.2154249100853916</v>
       </c>
     </row>
   </sheetData>
@@ -1077,7 +1052,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1109,10 +1084,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.008436467967336988</v>
+        <v>1.103321434134877</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9967177934855604</v>
+        <v>0.6043758887083401</v>
       </c>
     </row>
     <row r="3">
@@ -1122,10 +1097,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1811728162363479</v>
+        <v>0.3804803436727475</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6954754498816916</v>
+        <v>0.4053730708929727</v>
       </c>
     </row>
     <row r="4">
@@ -1135,257 +1110,244 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.8787213880926241</v>
+        <v>-0.8523752004760583</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02600332802516815</v>
+        <v>0.02978931256340158</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5108423855851221</v>
+        <v>-0.8130465782473643</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5411536673014892</v>
+        <v>0.03729946578556641</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.9316029564999264</v>
+        <v>-0.3353800865221396</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01774955414855893</v>
+        <v>0.5539866968199669</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03268771021692432</v>
+        <v>0.04467577575384572</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9788279084610728</v>
+        <v>0.8432519597639881</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.06612773418397734</v>
+        <v>0.000178841282010958</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7781686748644736</v>
+        <v>0.02415124202186535</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0001934019171376281</v>
+        <v>0.02873474832020732</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0124857895781257</v>
+        <v>0.002470302111901709</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02211312797650928</v>
+        <v>-0.02711719539443273</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01420238514786994</v>
+        <v>0.9228262263960483</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.001915038594226307</v>
+        <v>0.02962288174638609</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9943870194244866</v>
+        <v>0.9488676679149231</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.08624912956592802</v>
+        <v>-0.4045247481158195</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8438861083254796</v>
+        <v>0.4680251403488667</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.02927369624642583</v>
+        <v>-5.450802500453578e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9554063738932468</v>
+        <v>0.3775467949539275</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-5.180868019864831e-05</v>
+        <v>1.28492205145849e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4027103678355703</v>
+        <v>0.2697588312096129</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.09726062536514e-07</v>
+        <v>0.02926141996156168</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3412060989005153</v>
+        <v>0.8275958536135658</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.06107928692785982</v>
+        <v>0.07265088908573862</v>
       </c>
       <c r="C16" t="n">
-        <v>0.636306347804942</v>
+        <v>0.3055393057048005</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1126136363021957</v>
+        <v>1.276425808156832</v>
       </c>
       <c r="C17" t="n">
-        <v>0.09743015161141547</v>
+        <v>0.4526111737149465</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9528899192893536</v>
+        <v>-0.02729414425849482</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5650677497311819</v>
+        <v>0.124390952696223</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.006560900601611856</v>
+        <v>-0.006465178412950395</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6987945660961546</v>
+        <v>0.6460881436031393</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0004127005387006926</v>
+        <v>2.270652822336329</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9757137799786014</v>
+        <v>0.2879300405171518</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.162773387150502</v>
+        <v>-3.517604324216342</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5820004481655374</v>
+        <v>0.09378760662759623</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-2.693327593500886</v>
+        <v>-1.048479540535588</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1907146641493451</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-1.347269580360418</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.316777329000057</v>
+        <v>0.4383524985962803</v>
       </c>
     </row>
   </sheetData>
@@ -1399,7 +1361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1431,10 +1393,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3451044603994307</v>
+        <v>1.328710795289294</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8676786097341693</v>
+        <v>0.5166330111745652</v>
       </c>
     </row>
     <row r="3">
@@ -1444,10 +1406,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3778908892067445</v>
+        <v>0.157506971420591</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4078669404211976</v>
+        <v>0.7225717257145383</v>
       </c>
     </row>
     <row r="4">
@@ -1457,257 +1419,244 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.8037711714551358</v>
+        <v>-0.9686352114428139</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03707579868672867</v>
+        <v>0.01080056464661512</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04453635964642323</v>
+        <v>-1.062924343812638</v>
       </c>
       <c r="C5" t="n">
-        <v>0.945749045306884</v>
+        <v>0.005174737275077488</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.9300788540701999</v>
+        <v>-0.1083461875091005</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01694178268762904</v>
+        <v>0.8660743072425818</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2117117376501033</v>
+        <v>0.01205764123997031</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8640214728000994</v>
+        <v>0.9556479750869549</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02839741707658971</v>
+        <v>0.0001798661793428868</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8991886570543398</v>
+        <v>0.02041097047129373</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0002066805692619861</v>
+        <v>0.02289000670190148</v>
       </c>
       <c r="C9" t="n">
-        <v>0.008195448015075381</v>
+        <v>0.01042060943439741</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02527523936385713</v>
+        <v>-0.01342705280888018</v>
       </c>
       <c r="C10" t="n">
-        <v>0.005260704893791248</v>
+        <v>0.9608360770752912</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0973508521041988</v>
+        <v>0.4114799170558259</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7207334426846204</v>
+        <v>0.3108158643970966</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4769321933275952</v>
+        <v>0.2322292881857355</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2671261349958947</v>
+        <v>0.6411872895872646</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3192772241726272</v>
+        <v>-2.760511625918427e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5335782468750097</v>
+        <v>0.6507233942923203</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-5.290298493633043e-05</v>
+        <v>1.507721938199282e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3951599194773058</v>
+        <v>0.1775905704032327</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.170502986842904e-07</v>
+        <v>-0.05805036845550571</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3143989505540569</v>
+        <v>0.6490641770352494</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.03348957218262025</v>
+        <v>0.07200983917635034</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7964225444541817</v>
+        <v>0.2849934916757826</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.09214914741367573</v>
+        <v>0.8935131538114142</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1824918568679489</v>
+        <v>0.5946948973077315</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3635460210683273</v>
+        <v>-0.02028790873423628</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8299111501260452</v>
+        <v>0.2299575906978728</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01674695193945598</v>
+        <v>-0.008453850883402537</v>
       </c>
       <c r="C19" t="n">
-        <v>0.32347133501347</v>
+        <v>0.5301289610732707</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.006548962132131267</v>
+        <v>1.344570727066953</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6298138532702473</v>
+        <v>0.5259470771399448</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.719696015329852</v>
+        <v>-3.825983240807589</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4200181595600603</v>
+        <v>0.0569058783840796</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-3.12199043359623</v>
+        <v>-1.085090768923498</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1328494912641111</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-0.9595341041990043</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.4710040608808288</v>
+        <v>0.4123072784178705</v>
       </c>
     </row>
   </sheetData>
@@ -1721,7 +1670,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1753,10 +1702,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.131276410872418</v>
+        <v>0.3334629991693965</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5899781788185939</v>
+        <v>0.8698707416217791</v>
       </c>
     </row>
     <row r="3">
@@ -1766,10 +1715,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5630388918987129</v>
+        <v>0.6311349173652544</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2197744055463203</v>
+        <v>0.157069542670196</v>
       </c>
     </row>
     <row r="4">
@@ -1779,257 +1728,244 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.065874751610792</v>
+        <v>-0.886509376354382</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005463924588814107</v>
+        <v>0.0187495678992634</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1655052379179608</v>
+        <v>-1.019253911163738</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7860124608445367</v>
+        <v>0.007855253788102094</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.073118888837628</v>
+        <v>0.03033428218569813</v>
       </c>
       <c r="C6" t="n">
-        <v>0.006020680897687349</v>
+        <v>0.9603629201375191</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.08019937616200568</v>
+        <v>-0.102728522400848</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9491027031197066</v>
+        <v>0.6281716243753773</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.06962916367792391</v>
+        <v>0.000232363839809489</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7504638257835639</v>
+        <v>0.002892719120008838</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0002222859035292246</v>
+        <v>0.0314081644967454</v>
       </c>
       <c r="C9" t="n">
-        <v>0.005512895892811196</v>
+        <v>0.0005313446781779605</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02738121319701615</v>
+        <v>0.02418229592999649</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002944812905036071</v>
+        <v>0.9291966450053697</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1072248324675261</v>
+        <v>0.1575449165714235</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6971944077649654</v>
+        <v>0.7167796323161046</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2533766726306068</v>
+        <v>-0.1847243018427984</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5766659931513454</v>
+        <v>0.72282060207322</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.009071094262976339</v>
+        <v>-2.904450200352688e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9866132468390765</v>
+        <v>0.640627188340045</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6.543182588759284e-05</v>
+        <v>1.849915999649422e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3023927390562422</v>
+        <v>0.1648945875411892</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.029369652663968e-07</v>
+        <v>-0.007034253166172899</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3520162135750764</v>
+        <v>0.9563352385642818</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.1240030505212949</v>
+        <v>0.1017913929219978</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3542936175935223</v>
+        <v>0.1367760724723387</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.07505953565238213</v>
+        <v>0.4073404659946168</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2878320659309126</v>
+        <v>0.8045310796960015</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.7601915412214477</v>
+        <v>-0.01479037123462205</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6589077066810137</v>
+        <v>0.3879534239250988</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01245545387823957</v>
+        <v>-0.006971139230132509</v>
       </c>
       <c r="C19" t="n">
-        <v>0.477254822662263</v>
+        <v>0.5994052243978398</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.005256137888303519</v>
+        <v>0.6552197916584416</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6981522097074371</v>
+        <v>0.7530439903959998</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.870358794429647</v>
+        <v>-4.787625220071243</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3889489019588868</v>
+        <v>0.03023407030524872</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-3.4251377466316</v>
+        <v>-0.5390240151962239</v>
       </c>
       <c r="C22" t="n">
-        <v>0.09409706912705446</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-1.607413415759901</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.2393124327262444</v>
+        <v>0.6889534519450644</v>
       </c>
     </row>
   </sheetData>
@@ -2043,7 +1979,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2075,10 +2011,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3000544574429247</v>
+        <v>0.8078806058076675</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8845156530969109</v>
+        <v>0.6955513525410244</v>
       </c>
     </row>
     <row r="3">
@@ -2088,10 +2024,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3599087194770448</v>
+        <v>0.3321679313948164</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4229936749055381</v>
+        <v>0.4462943869802388</v>
       </c>
     </row>
     <row r="4">
@@ -2101,257 +2037,244 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.7985426394310691</v>
+        <v>-1.065749802781335</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03852990440613747</v>
+        <v>0.004724483562803785</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1621947260597809</v>
+        <v>-1.181138329433735</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8058395440473437</v>
+        <v>0.002318223606371604</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.146660633520276</v>
+        <v>0.2098515738491614</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003258366831647301</v>
+        <v>0.7229113107905392</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.07016238445147091</v>
+        <v>-0.04436052877478736</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9542004119192925</v>
+        <v>0.8342009336432769</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.01072651192861636</v>
+        <v>0.0002540790398923679</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9610015114474704</v>
+        <v>0.001252680384596373</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0002014743249650958</v>
+        <v>0.02035510126954197</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01065699634711757</v>
+        <v>0.02501837394574977</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02603303474434861</v>
+        <v>-0.03630945914728839</v>
       </c>
       <c r="C10" t="n">
-        <v>0.004639406654340359</v>
+        <v>0.8949753417433105</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.03172311934612861</v>
+        <v>0.2388183022094736</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9097348406720072</v>
+        <v>0.5883885611940096</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5532153971280853</v>
+        <v>0.2397320262052527</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1853252816574852</v>
+        <v>0.6499541971569391</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2876479573341897</v>
+        <v>-6.18972936077464e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5726252659778306</v>
+        <v>0.3368433840947058</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.212234995938418e-06</v>
+        <v>1.698140324715298e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9076435353916499</v>
+        <v>0.1351163258342886</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.325705115811611e-07</v>
+        <v>-0.06295990974738115</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2595927619797216</v>
+        <v>0.6408484167465021</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0005951727820639365</v>
+        <v>0.08553814571580415</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9965149918119025</v>
+        <v>0.2058319534100237</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1000721370191875</v>
+        <v>0.2643108629916108</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1471482181316398</v>
+        <v>0.8758554721706158</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9222650987745292</v>
+        <v>-0.01949089986761095</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5812300753695734</v>
+        <v>0.2619691937919296</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.02278285637141349</v>
+        <v>-0.003263704216271434</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2028694002662685</v>
+        <v>0.8087736202518043</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.006115396589625636</v>
+        <v>2.905356317128917</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6520734247278686</v>
+        <v>0.1832142530269929</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.763607722907406</v>
+        <v>-3.007928477372776</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7157798598248033</v>
+        <v>0.139635708572279</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-2.909147356398726</v>
+        <v>-1.523277620202589</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1635489814493516</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-0.7939137246858431</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.5514722762805877</v>
+        <v>0.2720906156378488</v>
       </c>
     </row>
   </sheetData>
@@ -2365,7 +2288,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2397,10 +2320,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.329555680152473</v>
+        <v>1.627706707697349</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2636618801474064</v>
+        <v>0.4336749734829258</v>
       </c>
     </row>
     <row r="3">
@@ -2410,10 +2333,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2834823188652523</v>
+        <v>0.6345068188108446</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5285448031487405</v>
+        <v>0.1649783308480388</v>
       </c>
     </row>
     <row r="4">
@@ -2423,257 +2346,244 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.8589530760196169</v>
+        <v>-1.009031302442104</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02421244255916422</v>
+        <v>0.007901326962083684</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2292649476582223</v>
+        <v>-1.209591402619532</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7071008638967353</v>
+        <v>0.001943011954423141</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.7686385976531981</v>
+        <v>-0.07229258197990632</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04907406311644157</v>
+        <v>0.8977957494272467</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1029241405802179</v>
+        <v>-0.09834264710328443</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9349465879446148</v>
+        <v>0.6588461838309732</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03532156090618625</v>
+        <v>0.0002085889770459195</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8707342944179216</v>
+        <v>0.008343482704647244</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0002467167414427479</v>
+        <v>0.02074124622292724</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001521932138332468</v>
+        <v>0.02310708140529632</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02340480557885395</v>
+        <v>0.07448326600592471</v>
       </c>
       <c r="C10" t="n">
-        <v>0.009818339912041162</v>
+        <v>0.7833841099716444</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.002646751274991799</v>
+        <v>0.4779226629693397</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9922816064014547</v>
+        <v>0.2514318213783627</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1569055765621798</v>
+        <v>0.3788070980433006</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7191211464366467</v>
+        <v>0.4503437796932047</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.004172822899139792</v>
+        <v>-6.130454196475237e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9936506347874807</v>
+        <v>0.3258139341608675</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-4.477996419519579e-05</v>
+        <v>1.547454897145624e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4729300542253161</v>
+        <v>0.2532973077771821</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.305965703492479e-07</v>
+        <v>-0.139336077699969</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2402675609102172</v>
+        <v>0.2989686490443597</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.0608618446235704</v>
+        <v>0.06266536591008713</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6509963250265332</v>
+        <v>0.3608339487773941</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.04747745881444335</v>
+        <v>0.9625876258007594</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4910791880951469</v>
+        <v>0.5721413357688911</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.4327644534086557</v>
+        <v>-0.01462286362255154</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8013134612878329</v>
+        <v>0.4010005022797113</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.02337198762186148</v>
+        <v>-0.005033214895144165</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1745669534470745</v>
+        <v>0.7094572627242968</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01427064393584971</v>
+        <v>1.988319716381647</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3002409912153523</v>
+        <v>0.3528919223259066</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.611867368640267</v>
+        <v>-3.744150179282215</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2271478057444812</v>
+        <v>0.09214919086458924</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-3.391157877753626</v>
+        <v>-2.063679723960966</v>
       </c>
       <c r="C22" t="n">
-        <v>0.09288865547981173</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-1.441083994845632</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.2896143767482205</v>
+        <v>0.1294325047047456</v>
       </c>
     </row>
   </sheetData>
@@ -2687,7 +2597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2719,10 +2629,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7948136624194777</v>
+        <v>0.3897155157408521</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6992885444490848</v>
+        <v>0.8529480213623932</v>
       </c>
     </row>
     <row r="3">
@@ -2732,10 +2642,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3142201798516253</v>
+        <v>0.2040415954436901</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4660170195829586</v>
+        <v>0.6492718551882608</v>
       </c>
     </row>
     <row r="4">
@@ -2745,257 +2655,553 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.9206456653244741</v>
+        <v>-0.9469458425161877</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01563823390049307</v>
+        <v>0.01487892449550088</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2914426408276389</v>
+        <v>-0.8810070109912037</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6436180048365634</v>
+        <v>0.02479470185329693</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.125361443829335</v>
+        <v>-0.1091641975797849</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003050729635884584</v>
+        <v>0.8470378762371008</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.09778940657310835</v>
+        <v>0.05300673133053031</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9365278713119065</v>
+        <v>0.8091326491676121</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.06866593620582546</v>
+        <v>0.0002234894375710186</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7460585913599636</v>
+        <v>0.005140067772571362</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0001911718068569186</v>
+        <v>0.02270051056737175</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01428535504494809</v>
+        <v>0.01201437833135404</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02548106105598968</v>
+        <v>0.07882142173862743</v>
       </c>
       <c r="C10" t="n">
-        <v>0.005088120564016828</v>
+        <v>0.7762679339381752</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.0204067631663973</v>
+        <v>0.3009154810728409</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9418408004602897</v>
+        <v>0.4881250196542526</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4604898727864395</v>
+        <v>0.2052730583160378</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3067917481803007</v>
+        <v>0.6963867659390006</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1132687799225782</v>
+        <v>-7.010858754489219e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8326641115443947</v>
+        <v>0.2636425451908614</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6.662241252278579e-05</v>
+        <v>1.01621769321578e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2811493219036568</v>
+        <v>0.3631579430467823</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>9.164384240034367e-08</v>
+        <v>-0.03027543822147119</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4000048425334537</v>
+        <v>0.8164441887220566</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.1048335581042749</v>
+        <v>0.05826878160648164</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4183615770520853</v>
+        <v>0.4021171115116132</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1071657377102393</v>
+        <v>-0.1483135341828638</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1202082830150528</v>
+        <v>0.9315533007688805</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.2052272012878087</v>
+        <v>-0.01125956453495135</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9022528855732479</v>
+        <v>0.513568935915368</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.00839713834793337</v>
+        <v>-0.001280469963026409</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6225827449485961</v>
+        <v>0.9251377729472876</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.003133238827665026</v>
+        <v>2.690761794052232</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8144561075431354</v>
+        <v>0.2022333383120728</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.593982229632277</v>
+        <v>-1.620963202866416</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2155005118798929</v>
+        <v>0.4369227723158574</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>LU_Urban</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-1.903362169936464</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.1467134261663779</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>param</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>coefficient</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Intercept</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.1448708836938806</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9445570761670388</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>HHType_simp[T.MultiAdult_Kids]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.4128330840177163</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3643174372534184</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HHType_simp[T.Single_Female]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.7096332511461926</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.06387401389364462</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HHType_simp[T.Single_Male]</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-1.156783206066222</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.002329472862054593</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HHType_simp[T.Single_Parent]</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.2251841029446095</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6942037311374705</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HHSize</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.007149764661788547</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.974011408831665</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>IncomeDetailed_Numeric</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.0001910670786824474</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.01254726189849033</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>maxAgeHH</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.02586738807092449</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.004504880968409172</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>UniversityEducation</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.01003876614901648</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9705707851524695</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>InEmployment</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.3489943611605258</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4334090528340571</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AllRetired</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.07592923539284926</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8858374813743818</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>UrbPopDensity</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-2.899771552426784e-05</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.6447224693886162</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>UrbBuildDensity</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1.406246498064635e-07</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2036780503821783</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>DistSubcenter</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.06500921966683848</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.6190348550629898</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>DistCenter</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.1096012827348963</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1193836283780355</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>bike_lane_share</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.4433193436652086</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7930059263972441</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>IntersecDensity</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.01555529560344637</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.3667322248548295</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>StreetLength</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-0.001558183342487187</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9083534392485368</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>LU_UrbFab</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1.689911368853208</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4275473892707231</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>LU_Comm</t>
         </is>
       </c>
+      <c r="B21" t="n">
+        <v>-3.128683517491797</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.1227684133041679</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>LU_Urban</t>
+        </is>
+      </c>
       <c r="B22" t="n">
-        <v>-2.491780353236765</v>
+        <v>-1.289988180917587</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2221643014073363</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-2.097295880957278</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.1149094408042506</v>
+        <v>0.3288529772292517</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/carown_LR/Frankfurt am Main.xlsx
+++ b/outputs/ML_Results/carown_LR/Frankfurt am Main.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ7" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ24" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="summ4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ24" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ9" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ6" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ2" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ0" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ20" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ15" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ0" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ9" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ2" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.510842932547229</v>
+        <v>1.15228987242614</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4752255363844508</v>
+        <v>0.6262579679745359</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4236654151091517</v>
+        <v>0.285369674892152</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3746382340677414</v>
+        <v>0.6298724372237037</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.9270569151990113</v>
+        <v>-0.5913545478775967</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02249856953355165</v>
+        <v>0.2120617815049215</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.096908065924629</v>
+        <v>-0.3992253919215003</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006501404018595574</v>
+        <v>0.4103657914287148</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2170584550002161</v>
+        <v>0.2237255175100272</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7178234626689393</v>
+        <v>0.7318136657077234</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.05690099440000707</v>
+        <v>0.2529500075817765</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8128130192110887</v>
+        <v>0.4291626530328513</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0002585832506451421</v>
+        <v>0.0004022977043919081</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001230473103236703</v>
+        <v>7.928456206879405e-06</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02153384751068993</v>
+        <v>0.02290742080583078</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01831970523156141</v>
+        <v>0.02268474137796522</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.2095959340137817</v>
+        <v>-0.006618130108941096</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4581797384705527</v>
+        <v>0.9821901502928118</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3628362789869962</v>
+        <v>0.5441046560078643</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3855670882982065</v>
+        <v>0.2301443110213917</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2704239292986155</v>
+        <v>0.3236233928788582</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5957049031735193</v>
+        <v>0.5583342494979793</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-2.23143555128482e-06</v>
+        <v>-0.0001067043012230356</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9722478768157206</v>
+        <v>0.09419962351538191</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.357110244567379e-07</v>
+        <v>1.177312559902109e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2132813334274984</v>
+        <v>0.2891304145613013</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.00605424970296241</v>
+        <v>-0.0006358482430694442</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9638884881936571</v>
+        <v>0.9957637605433405</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1020655675798621</v>
+        <v>0.08007624123301668</v>
       </c>
       <c r="C16" t="n">
-        <v>0.151539179553727</v>
+        <v>0.3100972696722407</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.7858078861605244</v>
+        <v>-0.09292322904762171</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6540227545803222</v>
+        <v>0.9608631136282246</v>
       </c>
     </row>
     <row r="18">
@@ -674,23 +674,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.02558218925579367</v>
+        <v>-0.02636300513168824</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1532621929541234</v>
+        <v>0.1568038033543902</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01132884967505384</v>
+        <v>-0.01673558572306387</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4178640570167395</v>
+        <v>0.245942795909777</v>
       </c>
     </row>
     <row r="20">
@@ -700,10 +700,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.984318986247453</v>
+        <v>2.204990745615552</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3697391765167023</v>
+        <v>0.2447769675768988</v>
       </c>
     </row>
     <row r="21">
@@ -713,23 +713,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-2.60009728083746</v>
+        <v>-5.430555833352413</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2112770524253371</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-1.396842141560082</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.3070667288615045</v>
+        <v>0.002743931744140952</v>
       </c>
     </row>
   </sheetData>
@@ -743,7 +730,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -775,10 +762,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.682888652964748</v>
+        <v>1.396820466480991</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7462689858645162</v>
+        <v>0.5388556188047718</v>
       </c>
     </row>
     <row r="3">
@@ -788,10 +775,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3564738340136307</v>
+        <v>0.3693992670095952</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4226708383526653</v>
+        <v>0.4974574587862776</v>
       </c>
     </row>
     <row r="4">
@@ -801,10 +788,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.7256524311497371</v>
+        <v>-0.7778725037203368</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05957526967891202</v>
+        <v>0.07587093063065194</v>
       </c>
     </row>
     <row r="5">
@@ -814,10 +801,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.8734092143967171</v>
+        <v>-0.619979005344296</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02750039482645122</v>
+        <v>0.1661926252415158</v>
       </c>
     </row>
     <row r="6">
@@ -827,10 +814,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.07534937017179731</v>
+        <v>-0.1459403072609018</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9001496805840774</v>
+        <v>0.8089885897402415</v>
       </c>
     </row>
     <row r="7">
@@ -840,10 +827,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1011840115589767</v>
+        <v>0.05722497470508169</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6357122324320167</v>
+        <v>0.8303357076181294</v>
       </c>
     </row>
     <row r="8">
@@ -853,10 +840,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0002367328851696362</v>
+        <v>0.000396675168861502</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003871771570861136</v>
+        <v>1.274893203549396e-05</v>
       </c>
     </row>
     <row r="9">
@@ -866,10 +853,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02627367775387196</v>
+        <v>0.02433192357775353</v>
       </c>
       <c r="C9" t="n">
-        <v>0.005537416080406306</v>
+        <v>0.01392479770507673</v>
       </c>
     </row>
     <row r="10">
@@ -879,10 +866,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1717686964216636</v>
+        <v>-0.1288480455387265</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5419519993242881</v>
+        <v>0.6632844027741844</v>
       </c>
     </row>
     <row r="11">
@@ -892,10 +879,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5645692226509846</v>
+        <v>0.7754807540617876</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1955281467907389</v>
+        <v>0.08936179128063372</v>
       </c>
     </row>
     <row r="12">
@@ -905,10 +892,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1464050601089485</v>
+        <v>0.3485494258028846</v>
       </c>
       <c r="C12" t="n">
-        <v>0.778383529602299</v>
+        <v>0.5187430905088943</v>
       </c>
     </row>
     <row r="13">
@@ -918,10 +905,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-4.566558073062747e-05</v>
+        <v>-4.90940784362208e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4637996420685292</v>
+        <v>0.4436748480517561</v>
       </c>
     </row>
     <row r="14">
@@ -931,10 +918,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.029341693742113e-07</v>
+        <v>1.541205356615482e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3495238117069615</v>
+        <v>0.1662090405188362</v>
       </c>
     </row>
     <row r="15">
@@ -944,10 +931,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.1175376242318892</v>
+        <v>0.008243731253279813</v>
       </c>
       <c r="C15" t="n">
-        <v>0.387808006910864</v>
+        <v>0.9449355207714144</v>
       </c>
     </row>
     <row r="16">
@@ -957,10 +944,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.09062274448372352</v>
+        <v>0.06760059512195703</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2007693011729376</v>
+        <v>0.3756261444929905</v>
       </c>
     </row>
     <row r="17">
@@ -970,10 +957,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.6583273000663601</v>
+        <v>0.6954579130087608</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6933465424646164</v>
+        <v>0.7048167158907768</v>
       </c>
     </row>
     <row r="18">
@@ -983,23 +970,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01896873446255203</v>
+        <v>-0.03633535013323493</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2813401187733435</v>
+        <v>0.05232386291898859</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.002214552519013771</v>
+        <v>-0.01743770860039154</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8720587752078006</v>
+        <v>0.2175903509179575</v>
       </c>
     </row>
     <row r="20">
@@ -1009,10 +996,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.223859862890514</v>
+        <v>1.933156875778965</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2967263590951389</v>
+        <v>0.3040468372839912</v>
       </c>
     </row>
     <row r="21">
@@ -1022,23 +1009,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-3.313810305849748</v>
+        <v>-4.778591422950078</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1025304227589722</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-1.691946915475538</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.2154249100853916</v>
+        <v>0.008043757041803256</v>
       </c>
     </row>
   </sheetData>
@@ -1052,7 +1026,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1084,10 +1058,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.103321434134877</v>
+        <v>0.2452025885321706</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6043758887083401</v>
+        <v>0.9157492314847517</v>
       </c>
     </row>
     <row r="3">
@@ -1097,10 +1071,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3804803436727475</v>
+        <v>0.4939133571470745</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4053730708929727</v>
+        <v>0.4115182719522019</v>
       </c>
     </row>
     <row r="4">
@@ -1110,10 +1084,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.8523752004760583</v>
+        <v>-0.7267509204030224</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02978931256340158</v>
+        <v>0.1095195836705141</v>
       </c>
     </row>
     <row r="5">
@@ -1123,10 +1097,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.8130465782473643</v>
+        <v>-0.7480874346887223</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03729946578556641</v>
+        <v>0.1053197701031939</v>
       </c>
     </row>
     <row r="6">
@@ -1136,10 +1110,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.3353800865221396</v>
+        <v>-0.2896285465055349</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5539866968199669</v>
+        <v>0.6344115358089736</v>
       </c>
     </row>
     <row r="7">
@@ -1149,10 +1123,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.04467577575384572</v>
+        <v>0.1943126844135479</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8432519597639881</v>
+        <v>0.5238696877558</v>
       </c>
     </row>
     <row r="8">
@@ -1162,10 +1136,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.000178841282010958</v>
+        <v>0.0003287211865879121</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02415124202186535</v>
+        <v>0.000185024615986398</v>
       </c>
     </row>
     <row r="9">
@@ -1175,10 +1149,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02873474832020732</v>
+        <v>0.03437885060183316</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002470302111901709</v>
+        <v>0.0009380501630893801</v>
       </c>
     </row>
     <row r="10">
@@ -1188,10 +1162,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.02711719539443273</v>
+        <v>-0.06185720725612733</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9228262263960483</v>
+        <v>0.8339253257116028</v>
       </c>
     </row>
     <row r="11">
@@ -1201,10 +1175,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02962288174638609</v>
+        <v>0.4559974195613403</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9488676679149231</v>
+        <v>0.3657385941054137</v>
       </c>
     </row>
     <row r="12">
@@ -1214,10 +1188,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.4045247481158195</v>
+        <v>-0.4015734767030059</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4680251403488667</v>
+        <v>0.512148218653512</v>
       </c>
     </row>
     <row r="13">
@@ -1227,10 +1201,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-5.450802500453578e-05</v>
+        <v>-5.100534521142766e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3775467949539275</v>
+        <v>0.4231691509708982</v>
       </c>
     </row>
     <row r="14">
@@ -1240,10 +1214,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.28492205145849e-07</v>
+        <v>1.841904849899389e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2697588312096129</v>
+        <v>0.1093739122167836</v>
       </c>
     </row>
     <row r="15">
@@ -1253,10 +1227,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02926141996156168</v>
+        <v>-0.09675543683308026</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8275958536135658</v>
+        <v>0.4183528915195178</v>
       </c>
     </row>
     <row r="16">
@@ -1266,10 +1240,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.07265088908573862</v>
+        <v>0.08541589344528361</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3055393057048005</v>
+        <v>0.2588840823744599</v>
       </c>
     </row>
     <row r="17">
@@ -1279,10 +1253,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.276425808156832</v>
+        <v>0.5754245114452422</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4526111737149465</v>
+        <v>0.7526575122407851</v>
       </c>
     </row>
     <row r="18">
@@ -1292,23 +1266,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.02729414425849482</v>
+        <v>-0.02965555524356998</v>
       </c>
       <c r="C18" t="n">
-        <v>0.124390952696223</v>
+        <v>0.1131278556728253</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.006465178412950395</v>
+        <v>-0.007751886121217907</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6460881436031393</v>
+        <v>0.5850798372158517</v>
       </c>
     </row>
     <row r="20">
@@ -1318,10 +1292,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.270652822336329</v>
+        <v>1.57705203883727</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2879300405171518</v>
+        <v>0.3917269873187885</v>
       </c>
     </row>
     <row r="21">
@@ -1331,23 +1305,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-3.517604324216342</v>
+        <v>-6.197710009016978</v>
       </c>
       <c r="C21" t="n">
-        <v>0.09378760662759623</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-1.048479540535588</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.4383524985962803</v>
+        <v>0.0007050903202601354</v>
       </c>
     </row>
   </sheetData>
@@ -1361,7 +1322,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1393,10 +1354,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.328710795289294</v>
+        <v>0.4416591457042764</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5166330111745652</v>
+        <v>0.8451598154660845</v>
       </c>
     </row>
     <row r="3">
@@ -1406,10 +1367,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.157506971420591</v>
+        <v>0.5267041511587437</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7225717257145383</v>
+        <v>0.3390996962179647</v>
       </c>
     </row>
     <row r="4">
@@ -1419,10 +1380,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.9686352114428139</v>
+        <v>-0.7886770183749473</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01080056464661512</v>
+        <v>0.06492248025817031</v>
       </c>
     </row>
     <row r="5">
@@ -1432,10 +1393,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.062924343812638</v>
+        <v>-0.8268255692117653</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005174737275077488</v>
+        <v>0.05901124991538219</v>
       </c>
     </row>
     <row r="6">
@@ -1445,10 +1406,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1083461875091005</v>
+        <v>-0.2152639126473388</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8660743072425818</v>
+        <v>0.7250226344408164</v>
       </c>
     </row>
     <row r="7">
@@ -1458,10 +1419,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01205764123997031</v>
+        <v>0.03708941485996244</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9556479750869549</v>
+        <v>0.8890578979706355</v>
       </c>
     </row>
     <row r="8">
@@ -1471,10 +1432,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0001798661793428868</v>
+        <v>0.0003432243461889154</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02041097047129373</v>
+        <v>0.0001157049591152238</v>
       </c>
     </row>
     <row r="9">
@@ -1484,10 +1445,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02289000670190148</v>
+        <v>0.02105427840554065</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01042060943439741</v>
+        <v>0.03469568719295667</v>
       </c>
     </row>
     <row r="10">
@@ -1497,10 +1458,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.01342705280888018</v>
+        <v>-0.04514405209717631</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9608360770752912</v>
+        <v>0.8774592233234253</v>
       </c>
     </row>
     <row r="11">
@@ -1510,10 +1471,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4114799170558259</v>
+        <v>0.6327550578462999</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3108158643970966</v>
+        <v>0.1834034801113194</v>
       </c>
     </row>
     <row r="12">
@@ -1523,10 +1484,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2322292881857355</v>
+        <v>0.2005381503415291</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6411872895872646</v>
+        <v>0.7211736167300034</v>
       </c>
     </row>
     <row r="13">
@@ -1536,10 +1497,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-2.760511625918427e-05</v>
+        <v>-6.819294820878409e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6507233942923203</v>
+        <v>0.286591868193827</v>
       </c>
     </row>
     <row r="14">
@@ -1549,10 +1510,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.507721938199282e-07</v>
+        <v>1.407396357070702e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1775905704032327</v>
+        <v>0.1887368522343579</v>
       </c>
     </row>
     <row r="15">
@@ -1562,10 +1523,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.05805036845550571</v>
+        <v>-0.02005170998000131</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6490641770352494</v>
+        <v>0.8636525616093885</v>
       </c>
     </row>
     <row r="16">
@@ -1575,10 +1536,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.07200983917635034</v>
+        <v>0.1191007885314069</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2849934916757826</v>
+        <v>0.1183681133138509</v>
       </c>
     </row>
     <row r="17">
@@ -1588,10 +1549,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8935131538114142</v>
+        <v>0.5735006576130206</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5946948973077315</v>
+        <v>0.7516090745247624</v>
       </c>
     </row>
     <row r="18">
@@ -1601,23 +1562,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.02028790873423628</v>
+        <v>-0.02437726976446285</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2299575906978728</v>
+        <v>0.1914609026060831</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.008453850883402537</v>
+        <v>-0.007389019034233418</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5301289610732707</v>
+        <v>0.5940277749528809</v>
       </c>
     </row>
     <row r="20">
@@ -1627,10 +1588,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.344570727066953</v>
+        <v>1.581332414227247</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5259470771399448</v>
+        <v>0.3874493981259234</v>
       </c>
     </row>
     <row r="21">
@@ -1640,23 +1601,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-3.825983240807589</v>
+        <v>-5.542627088990651</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0569058783840796</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-1.085090768923498</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.4123072784178705</v>
+        <v>0.001560455169863806</v>
       </c>
     </row>
   </sheetData>
@@ -1670,7 +1618,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1702,10 +1650,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3334629991693965</v>
+        <v>1.270218420655779</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8698707416217791</v>
+        <v>0.583618091347497</v>
       </c>
     </row>
     <row r="3">
@@ -1715,10 +1663,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6311349173652544</v>
+        <v>0.5765595091237204</v>
       </c>
       <c r="C3" t="n">
-        <v>0.157069542670196</v>
+        <v>0.2962447959637751</v>
       </c>
     </row>
     <row r="4">
@@ -1728,10 +1676,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.886509376354382</v>
+        <v>-0.9788216933154751</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0187495678992634</v>
+        <v>0.02220910544238684</v>
       </c>
     </row>
     <row r="5">
@@ -1741,10 +1689,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.019253911163738</v>
+        <v>-0.7345055679982868</v>
       </c>
       <c r="C5" t="n">
-        <v>0.007855253788102094</v>
+        <v>0.09466383247284171</v>
       </c>
     </row>
     <row r="6">
@@ -1754,10 +1702,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03033428218569813</v>
+        <v>-0.1477587501462049</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9603629201375191</v>
+        <v>0.8086188939190919</v>
       </c>
     </row>
     <row r="7">
@@ -1767,10 +1715,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.102728522400848</v>
+        <v>0.04750806951965671</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6281716243753773</v>
+        <v>0.8603724708032404</v>
       </c>
     </row>
     <row r="8">
@@ -1780,10 +1728,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.000232363839809489</v>
+        <v>0.0003612006412275265</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002892719120008838</v>
+        <v>2.601661442635513e-05</v>
       </c>
     </row>
     <row r="9">
@@ -1793,10 +1741,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0314081644967454</v>
+        <v>0.02274701588569379</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0005313446781779605</v>
+        <v>0.02081655731428496</v>
       </c>
     </row>
     <row r="10">
@@ -1806,10 +1754,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02418229592999649</v>
+        <v>-0.2082636032913467</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9291966450053697</v>
+        <v>0.4703234760309817</v>
       </c>
     </row>
     <row r="11">
@@ -1819,10 +1767,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1575449165714235</v>
+        <v>0.6718681880274832</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7167796323161046</v>
+        <v>0.1363558628694069</v>
       </c>
     </row>
     <row r="12">
@@ -1832,10 +1780,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1847243018427984</v>
+        <v>0.1853853981458968</v>
       </c>
       <c r="C12" t="n">
-        <v>0.72282060207322</v>
+        <v>0.7322074495233277</v>
       </c>
     </row>
     <row r="13">
@@ -1845,10 +1793,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-2.904450200352688e-05</v>
+        <v>-9.180045909440421e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.640627188340045</v>
+        <v>0.1440811750023798</v>
       </c>
     </row>
     <row r="14">
@@ -1858,10 +1806,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.849915999649422e-07</v>
+        <v>1.14651771616509e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1648945875411892</v>
+        <v>0.2845571166167031</v>
       </c>
     </row>
     <row r="15">
@@ -1871,10 +1819,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.007034253166172899</v>
+        <v>-0.02093311852748149</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9563352385642818</v>
+        <v>0.8570380500089441</v>
       </c>
     </row>
     <row r="16">
@@ -1884,10 +1832,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1017913929219978</v>
+        <v>0.09548816128908258</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1367760724723387</v>
+        <v>0.2120311343412964</v>
       </c>
     </row>
     <row r="17">
@@ -1897,10 +1845,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4073404659946168</v>
+        <v>-0.2575259434112778</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8045310796960015</v>
+        <v>0.8911933703650898</v>
       </c>
     </row>
     <row r="18">
@@ -1910,23 +1858,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01479037123462205</v>
+        <v>-0.01968264031002939</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3879534239250988</v>
+        <v>0.2787324350090288</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.006971139230132509</v>
+        <v>-0.01455610333812906</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5994052243978398</v>
+        <v>0.3026678090226363</v>
       </c>
     </row>
     <row r="20">
@@ -1936,10 +1884,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.6552197916584416</v>
+        <v>1.719626002446811</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7530439903959998</v>
+        <v>0.3525470460407822</v>
       </c>
     </row>
     <row r="21">
@@ -1949,23 +1897,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-4.787625220071243</v>
+        <v>-5.071872577215487</v>
       </c>
       <c r="C21" t="n">
-        <v>0.03023407030524872</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.5390240151962239</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.6889534519450644</v>
+        <v>0.004090012388718498</v>
       </c>
     </row>
   </sheetData>
@@ -1979,7 +1914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2011,10 +1946,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8078806058076675</v>
+        <v>0.4546266577454353</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6955513525410244</v>
+        <v>0.8416580376969499</v>
       </c>
     </row>
     <row r="3">
@@ -2024,10 +1959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3321679313948164</v>
+        <v>0.5788098354064302</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4462943869802388</v>
+        <v>0.2761987108328293</v>
       </c>
     </row>
     <row r="4">
@@ -2037,10 +1972,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.065749802781335</v>
+        <v>-0.7610415545341059</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004724483562803785</v>
+        <v>0.07453785633143305</v>
       </c>
     </row>
     <row r="5">
@@ -2050,10 +1985,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.181138329433735</v>
+        <v>-0.8940359507223016</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002318223606371604</v>
+        <v>0.03930814610647328</v>
       </c>
     </row>
     <row r="6">
@@ -2063,10 +1998,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2098515738491614</v>
+        <v>-0.6271214094086121</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7229113107905392</v>
+        <v>0.3150210971253899</v>
       </c>
     </row>
     <row r="7">
@@ -2076,10 +2011,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.04436052877478736</v>
+        <v>0.04346214348393374</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8342009336432769</v>
+        <v>0.8694230557942836</v>
       </c>
     </row>
     <row r="8">
@@ -2089,10 +2024,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0002540790398923679</v>
+        <v>0.0002730967332691781</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001252680384596373</v>
+        <v>0.001542634506144461</v>
       </c>
     </row>
     <row r="9">
@@ -2102,10 +2037,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02035510126954197</v>
+        <v>0.03483343260243009</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02501837394574977</v>
+        <v>0.0006032758955295032</v>
       </c>
     </row>
     <row r="10">
@@ -2115,10 +2050,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.03630945914728839</v>
+        <v>0.1770413609816972</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8949753417433105</v>
+        <v>0.5454460814784587</v>
       </c>
     </row>
     <row r="11">
@@ -2128,10 +2063,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2388183022094736</v>
+        <v>0.7097684284316707</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5883885611940096</v>
+        <v>0.1083239758796616</v>
       </c>
     </row>
     <row r="12">
@@ -2141,10 +2076,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2397320262052527</v>
+        <v>-0.1744146474078683</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6499541971569391</v>
+        <v>0.7474902795472177</v>
       </c>
     </row>
     <row r="13">
@@ -2154,10 +2089,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-6.18972936077464e-05</v>
+        <v>-7.121303967748964e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3368433840947058</v>
+        <v>0.2433736205159589</v>
       </c>
     </row>
     <row r="14">
@@ -2167,10 +2102,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.698140324715298e-07</v>
+        <v>2.717328550528841e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1351163258342886</v>
+        <v>0.1155256910441879</v>
       </c>
     </row>
     <row r="15">
@@ -2180,10 +2115,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.06295990974738115</v>
+        <v>0.02065319769520344</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6408484167465021</v>
+        <v>0.8625486507876206</v>
       </c>
     </row>
     <row r="16">
@@ -2193,10 +2128,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.08553814571580415</v>
+        <v>0.1066988106387759</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2058319534100237</v>
+        <v>0.1557796608318675</v>
       </c>
     </row>
     <row r="17">
@@ -2206,10 +2141,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2643108629916108</v>
+        <v>1.184130995663804</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8758554721706158</v>
+        <v>0.5098304461039606</v>
       </c>
     </row>
     <row r="18">
@@ -2219,23 +2154,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01949089986761095</v>
+        <v>-0.02907996223616036</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2619691937919296</v>
+        <v>0.1231022088237786</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.003263704216271434</v>
+        <v>-0.01413823649196605</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8087736202518043</v>
+        <v>0.314037659513156</v>
       </c>
     </row>
     <row r="20">
@@ -2245,10 +2180,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.905356317128917</v>
+        <v>1.118733584370561</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1832142530269929</v>
+        <v>0.5361207153776745</v>
       </c>
     </row>
     <row r="21">
@@ -2258,23 +2193,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-3.007928477372776</v>
+        <v>-6.250124873257571</v>
       </c>
       <c r="C21" t="n">
-        <v>0.139635708572279</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-1.523277620202589</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.2720906156378488</v>
+        <v>0.006528209421781438</v>
       </c>
     </row>
   </sheetData>
@@ -2288,7 +2210,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2320,10 +2242,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.627706707697349</v>
+        <v>-1.086942430830222</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4336749734829258</v>
+        <v>0.6456246999866769</v>
       </c>
     </row>
     <row r="3">
@@ -2333,10 +2255,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6345068188108446</v>
+        <v>0.8153506518773683</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1649783308480388</v>
+        <v>0.1594625393994008</v>
       </c>
     </row>
     <row r="4">
@@ -2346,10 +2268,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.009031302442104</v>
+        <v>-1.262975712625112</v>
       </c>
       <c r="C4" t="n">
-        <v>0.007901326962083684</v>
+        <v>0.004438421639557347</v>
       </c>
     </row>
     <row r="5">
@@ -2359,10 +2281,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.209591402619532</v>
+        <v>-1.098942675302486</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001943011954423141</v>
+        <v>0.01585323945397599</v>
       </c>
     </row>
     <row r="6">
@@ -2372,10 +2294,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.07229258197990632</v>
+        <v>0.003542921830000408</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8977957494272467</v>
+        <v>0.9961509558208891</v>
       </c>
     </row>
     <row r="7">
@@ -2385,10 +2307,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.09834264710328443</v>
+        <v>-0.06944375725363632</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6588461838309732</v>
+        <v>0.8009612955992425</v>
       </c>
     </row>
     <row r="8">
@@ -2398,10 +2320,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0002085889770459195</v>
+        <v>0.0003443672923687777</v>
       </c>
       <c r="C8" t="n">
-        <v>0.008343482704647244</v>
+        <v>0.0002033064691996511</v>
       </c>
     </row>
     <row r="9">
@@ -2411,10 +2333,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02074124622292724</v>
+        <v>0.02960275314267162</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02310708140529632</v>
+        <v>0.004449796145947129</v>
       </c>
     </row>
     <row r="10">
@@ -2424,10 +2346,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.07448326600592471</v>
+        <v>0.1056510371804785</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7833841099716444</v>
+        <v>0.7220239649297944</v>
       </c>
     </row>
     <row r="11">
@@ -2437,10 +2359,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4779226629693397</v>
+        <v>0.5835330911992292</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2514318213783627</v>
+        <v>0.2218190593967283</v>
       </c>
     </row>
     <row r="12">
@@ -2450,10 +2372,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3788070980433006</v>
+        <v>-0.04565204579296805</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4503437796932047</v>
+        <v>0.9355554957286757</v>
       </c>
     </row>
     <row r="13">
@@ -2463,10 +2385,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-6.130454196475237e-05</v>
+        <v>-2.360765816803063e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3258139341608675</v>
+        <v>0.7170120024896049</v>
       </c>
     </row>
     <row r="14">
@@ -2476,10 +2398,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.547454897145624e-07</v>
+        <v>1.496196394594086e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2532973077771821</v>
+        <v>0.193983825371843</v>
       </c>
     </row>
     <row r="15">
@@ -2489,10 +2411,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.139336077699969</v>
+        <v>0.03636552230669825</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2989686490443597</v>
+        <v>0.7681537371511779</v>
       </c>
     </row>
     <row r="16">
@@ -2502,10 +2424,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.06266536591008713</v>
+        <v>0.1389044709181465</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3608339487773941</v>
+        <v>0.07536603130144703</v>
       </c>
     </row>
     <row r="17">
@@ -2515,10 +2437,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9625876258007594</v>
+        <v>1.300069061285306</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5721413357688911</v>
+        <v>0.490453585268233</v>
       </c>
     </row>
     <row r="18">
@@ -2528,23 +2450,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01462286362255154</v>
+        <v>-0.02675363522283577</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4010005022797113</v>
+        <v>0.1643361317582188</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.005033214895144165</v>
+        <v>0.001243318482355644</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7094572627242968</v>
+        <v>0.9324738466793651</v>
       </c>
     </row>
     <row r="20">
@@ -2554,10 +2476,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.988319716381647</v>
+        <v>1.52146205192632</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3528919223259066</v>
+        <v>0.4197610306138957</v>
       </c>
     </row>
     <row r="21">
@@ -2567,23 +2489,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-3.744150179282215</v>
+        <v>-5.480634682629677</v>
       </c>
       <c r="C21" t="n">
-        <v>0.09214919086458924</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-2.063679723960966</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.1294325047047456</v>
+        <v>0.003064168828522779</v>
       </c>
     </row>
   </sheetData>
@@ -2597,7 +2506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2629,10 +2538,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3897155157408521</v>
+        <v>-0.3993763995124139</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8529480213623932</v>
+        <v>0.8664913557881581</v>
       </c>
     </row>
     <row r="3">
@@ -2642,10 +2551,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2040415954436901</v>
+        <v>0.3043689002662612</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6492718551882608</v>
+        <v>0.6033747058967007</v>
       </c>
     </row>
     <row r="4">
@@ -2655,10 +2564,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.9469458425161877</v>
+        <v>-0.7898360565416844</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01487892449550088</v>
+        <v>0.08493601970619863</v>
       </c>
     </row>
     <row r="5">
@@ -2668,10 +2577,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.8810070109912037</v>
+        <v>-0.7781510960098297</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02479470185329693</v>
+        <v>0.09299267573663142</v>
       </c>
     </row>
     <row r="6">
@@ -2681,10 +2590,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1091641975797849</v>
+        <v>0.1015858631445111</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8470378762371008</v>
+        <v>0.885569020348723</v>
       </c>
     </row>
     <row r="7">
@@ -2694,10 +2603,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.05300673133053031</v>
+        <v>0.2196143905159326</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8091326491676121</v>
+        <v>0.4636003922169478</v>
       </c>
     </row>
     <row r="8">
@@ -2707,10 +2616,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0002234894375710186</v>
+        <v>0.000299953131956462</v>
       </c>
       <c r="C8" t="n">
-        <v>0.005140067772571362</v>
+        <v>0.0007648711800250844</v>
       </c>
     </row>
     <row r="9">
@@ -2720,10 +2629,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02270051056737175</v>
+        <v>0.02750661924490722</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01201437833135404</v>
+        <v>0.006741714411859126</v>
       </c>
     </row>
     <row r="10">
@@ -2733,10 +2642,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.07882142173862743</v>
+        <v>-0.1119208250456959</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7762679339381752</v>
+        <v>0.7117504800321071</v>
       </c>
     </row>
     <row r="11">
@@ -2746,10 +2655,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3009154810728409</v>
+        <v>0.6726969940146413</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4881250196542526</v>
+        <v>0.1486026164225955</v>
       </c>
     </row>
     <row r="12">
@@ -2759,10 +2668,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2052730583160378</v>
+        <v>0.0660243167857783</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6963867659390006</v>
+        <v>0.9079959641014862</v>
       </c>
     </row>
     <row r="13">
@@ -2772,10 +2681,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-7.010858754489219e-05</v>
+        <v>-7.51435503690915e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2636425451908614</v>
+        <v>0.2462126494202458</v>
       </c>
     </row>
     <row r="14">
@@ -2785,10 +2694,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.01621769321578e-07</v>
+        <v>1.402305484037961e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3631579430467823</v>
+        <v>0.19629248535134</v>
       </c>
     </row>
     <row r="15">
@@ -2798,10 +2707,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.03027543822147119</v>
+        <v>-0.02228275463563265</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8164441887220566</v>
+        <v>0.852201115669638</v>
       </c>
     </row>
     <row r="16">
@@ -2811,10 +2720,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.05826878160648164</v>
+        <v>0.1513576769380668</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4021171115116132</v>
+        <v>0.05526509545799752</v>
       </c>
     </row>
     <row r="17">
@@ -2824,10 +2733,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.1483135341828638</v>
+        <v>1.544812318743773</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9315533007688805</v>
+        <v>0.4093557548462328</v>
       </c>
     </row>
     <row r="18">
@@ -2837,23 +2746,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01125956453495135</v>
+        <v>-0.01819214383981482</v>
       </c>
       <c r="C18" t="n">
-        <v>0.513568935915368</v>
+        <v>0.3357222416134176</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.001280469963026409</v>
+        <v>-0.007947535166465012</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9251377729472876</v>
+        <v>0.58142933863059</v>
       </c>
     </row>
     <row r="20">
@@ -2863,10 +2772,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.690761794052232</v>
+        <v>0.6681758469058552</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2022333383120728</v>
+        <v>0.7179475889575597</v>
       </c>
     </row>
     <row r="21">
@@ -2876,23 +2785,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-1.620963202866416</v>
+        <v>-4.868130515858935</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4369227723158574</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-1.903362169936464</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.1467134261663779</v>
+        <v>0.00648417180399023</v>
       </c>
     </row>
   </sheetData>
@@ -2906,7 +2802,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2938,10 +2834,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1448708836938806</v>
+        <v>0.8337947487031961</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9445570761670388</v>
+        <v>0.7289307256806252</v>
       </c>
     </row>
     <row r="3">
@@ -2951,10 +2847,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4128330840177163</v>
+        <v>0.5438434728215575</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3643174372534184</v>
+        <v>0.3458466144349601</v>
       </c>
     </row>
     <row r="4">
@@ -2964,10 +2860,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.7096332511461926</v>
+        <v>-0.9411977718285027</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06387401389364462</v>
+        <v>0.03554381535998917</v>
       </c>
     </row>
     <row r="5">
@@ -2977,10 +2873,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.156783206066222</v>
+        <v>-0.9564537837781488</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002329472862054593</v>
+        <v>0.03558292806795215</v>
       </c>
     </row>
     <row r="6">
@@ -2990,10 +2886,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2251841029446095</v>
+        <v>-0.3006189097645988</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6942037311374705</v>
+        <v>0.6246252970752</v>
       </c>
     </row>
     <row r="7">
@@ -3003,10 +2899,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.007149764661788547</v>
+        <v>0.06223073879711197</v>
       </c>
       <c r="C7" t="n">
-        <v>0.974011408831665</v>
+        <v>0.8250169599977961</v>
       </c>
     </row>
     <row r="8">
@@ -3016,10 +2912,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0001910670786824474</v>
+        <v>0.0003899530703204401</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01254726189849033</v>
+        <v>1.630594711343164e-05</v>
       </c>
     </row>
     <row r="9">
@@ -3029,10 +2925,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02586738807092449</v>
+        <v>0.02364991692923842</v>
       </c>
       <c r="C9" t="n">
-        <v>0.004504880968409172</v>
+        <v>0.02044876749853763</v>
       </c>
     </row>
     <row r="10">
@@ -3042,10 +2938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01003876614901648</v>
+        <v>-0.1088571694736818</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9705707851524695</v>
+        <v>0.721483087499765</v>
       </c>
     </row>
     <row r="11">
@@ -3055,10 +2951,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3489943611605258</v>
+        <v>0.9269546091234809</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4334090528340571</v>
+        <v>0.04876444809068135</v>
       </c>
     </row>
     <row r="12">
@@ -3068,10 +2964,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.07592923539284926</v>
+        <v>0.5194092228964748</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8858374813743818</v>
+        <v>0.3525262878864588</v>
       </c>
     </row>
     <row r="13">
@@ -3081,10 +2977,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-2.899771552426784e-05</v>
+        <v>-5.866194697135677e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6447224693886162</v>
+        <v>0.3653528872466798</v>
       </c>
     </row>
     <row r="14">
@@ -3094,10 +2990,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.406246498064635e-07</v>
+        <v>1.889825496319474e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2036780503821783</v>
+        <v>0.09445673211102626</v>
       </c>
     </row>
     <row r="15">
@@ -3107,10 +3003,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.06500921966683848</v>
+        <v>-0.02144624094242729</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6190348550629898</v>
+        <v>0.8606710895696366</v>
       </c>
     </row>
     <row r="16">
@@ -3120,10 +3016,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1096012827348963</v>
+        <v>0.07229763335152459</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1193836283780355</v>
+        <v>0.3536587947090374</v>
       </c>
     </row>
     <row r="17">
@@ -3133,10 +3029,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4433193436652086</v>
+        <v>0.5913427600603558</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7930059263972441</v>
+        <v>0.7551835657213323</v>
       </c>
     </row>
     <row r="18">
@@ -3146,23 +3042,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01555529560344637</v>
+        <v>-0.03641501350578427</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3667322248548295</v>
+        <v>0.05130613645330055</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.001558183342487187</v>
+        <v>-0.01094989979895663</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9083534392485368</v>
+        <v>0.4641396027350695</v>
       </c>
     </row>
     <row r="20">
@@ -3172,10 +3068,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.689911368853208</v>
+        <v>1.606591561509602</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4275473892707231</v>
+        <v>0.3884936548307371</v>
       </c>
     </row>
     <row r="21">
@@ -3185,23 +3081,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-3.128683517491797</v>
+        <v>-4.842726572305783</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1227684133041679</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-1.289988180917587</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.3288529772292517</v>
+        <v>0.01183242580189731</v>
       </c>
     </row>
   </sheetData>
